--- a/biology/Botanique/Pacôme_de_Champignac/Pacôme_de_Champignac.xlsx
+++ b/biology/Botanique/Pacôme_de_Champignac/Pacôme_de_Champignac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pac%C3%B4me_de_Champignac</t>
+          <t>Pacôme_de_Champignac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pacôme Hégésippe Adélard Ladislas, comte de Champignac est un personnage de fiction créé par André Franquin et Henri Gillain dans la série de bande dessinée Spirou et Fantasio en 1950.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pac%C3%B4me_de_Champignac</t>
+          <t>Pacôme_de_Champignac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie fictive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il semble que le comte ait toujours été un génie. Dès la maternelle, il construit son premier ordinateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble que le comte ait toujours été un génie. Dès la maternelle, il construit son premier ordinateur.
 À l'université il rencontre Zorglub et Miss Flanner, deux condisciples extrêmement doués. Zorglub devient ami de Pacôme et vit une idylle avec Miss Flanner. Mais les trois individualités ont des ambitions divergentes. Zorglub est obsédé par le pouvoir et Miss Flanner cherche à satisfaire son égoïsme surdimensionné. Ainsi, la vie les pousse à devenir adversaires.
-Pendant la Seconde Guerre mondiale, à Bletchley près de Londres, Champignac participe au décryptage de la machine allemande à coder Enigma auprès d'Alan Turing, vit une idylle avec miss Mac Kenzie et croise Churchill[2].
-Champignac rencontre Spirou et Fantasio alors que ceux-ci enquêtent sur un mystérieux sorcier qui perturbe le village de Champignac-en-Cambrousse. Ce sorcier est bien sûr le comte[3]. Il se lie d'amitié avec ces jeunes garçons pleins d'énergie et vit avec eux de nombreuses aventures.
+Pendant la Seconde Guerre mondiale, à Bletchley près de Londres, Champignac participe au décryptage de la machine allemande à coder Enigma auprès d'Alan Turing, vit une idylle avec miss Mac Kenzie et croise Churchill.
+Champignac rencontre Spirou et Fantasio alors que ceux-ci enquêtent sur un mystérieux sorcier qui perturbe le village de Champignac-en-Cambrousse. Ce sorcier est bien sûr le comte. Il se lie d'amitié avec ces jeunes garçons pleins d'énergie et vit avec eux de nombreuses aventures.
 Il héberge le Marsupilami dans le parc de son château, jusqu'au retour en Palombie de l'animal. C'est aussi avec Spirou et Fantasio qu'il est confronté aux projets mégalomanes de son ancien condisciple Zorglub, avec qui il finit par redevenir ami.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pac%C3%B4me_de_Champignac</t>
+          <t>Pacôme_de_Champignac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,27 +563,171 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Physique
-Pacôme est un vieillard assez grand et mince, moustachu et affublé d'un long menton en pointe qui se réduit progressivement au fil des épisodes, phénomène contraire à ce qui se constate dans la vraie vie. Dans Il y a un sorcier à Champignac (1950) il affirme être un septuagénaire rhumatisant, ce qui le ferait naître dans les années 1880 ; sa chevelure mi-longue flotte en arrière, encore brune dans Champignac[2] où il serait donc quinquagénaire, mais blanche dans les autres albums où il est plus âgé.Au cours de ses premières apparitions dans la série, Champignac porte des besicles. Cet accessoire de vue disparaît au premier quart de l'épisode Le Repaire de la murène[4]. Cette disparition est compensée par une légère modification graphique de son visage : avec leur blanc agrandi (et leur paupière tombante) ses yeux deviennent globuleux.Ses lorgnons reviendront sporadiquement, surtout lorsqu'ils témoigneront d'une activité de lecture ou d'étude attentive ; par exemple dans Les Pirates du silence, planche 20 (page 36 de l'album) ; ou bien d'une façon plus persistante, comme dans Le Voyageur du Mésozoïque, de la planche 3 à la planche 10 (pages 7 à 19 de l'album).
-Personnalité
-Pacôme est un personnage original, savant, inventeur et souvent fantaisiste. Scientifique chevronné, il maîtrise un nombre impressionnant de disciplines comme la chimie, la physique, l'électronique et la biologie, particulièrement la mycologie. Il cultive une passion pour tous types de champignons à carpophore, principalement des basidiomycètes qu'il trouve dans le parc de son château et dans la commune de Champignac-en-Cambrousse dont le nom évoque ces cryptogames. Ses incessantes recherches sur ces champignons lui permettent de réaliser des découvertes scientifiques révolutionnaires, mais qui peuvent s'avérer dangereuses si elles tombent entre de mauvaises mains.
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pacôme est un vieillard assez grand et mince, moustachu et affublé d'un long menton en pointe qui se réduit progressivement au fil des épisodes, phénomène contraire à ce qui se constate dans la vraie vie. Dans Il y a un sorcier à Champignac (1950) il affirme être un septuagénaire rhumatisant, ce qui le ferait naître dans les années 1880 ; sa chevelure mi-longue flotte en arrière, encore brune dans Champignac où il serait donc quinquagénaire, mais blanche dans les autres albums où il est plus âgé.Au cours de ses premières apparitions dans la série, Champignac porte des besicles. Cet accessoire de vue disparaît au premier quart de l'épisode Le Repaire de la murène. Cette disparition est compensée par une légère modification graphique de son visage : avec leur blanc agrandi (et leur paupière tombante) ses yeux deviennent globuleux.Ses lorgnons reviendront sporadiquement, surtout lorsqu'ils témoigneront d'une activité de lecture ou d'étude attentive ; par exemple dans Les Pirates du silence, planche 20 (page 36 de l'album) ; ou bien d'une façon plus persistante, comme dans Le Voyageur du Mésozoïque, de la planche 3 à la planche 10 (pages 7 à 19 de l'album).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnalité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pacôme est un personnage original, savant, inventeur et souvent fantaisiste. Scientifique chevronné, il maîtrise un nombre impressionnant de disciplines comme la chimie, la physique, l'électronique et la biologie, particulièrement la mycologie. Il cultive une passion pour tous types de champignons à carpophore, principalement des basidiomycètes qu'il trouve dans le parc de son château et dans la commune de Champignac-en-Cambrousse dont le nom évoque ces cryptogames. Ses incessantes recherches sur ces champignons lui permettent de réaliser des découvertes scientifiques révolutionnaires, mais qui peuvent s'avérer dangereuses si elles tombent entre de mauvaises mains.
 Un des premiers produits qu'il parvient ainsi à élaborer, baptisé X1, donne une force et une vitesse surhumaines à celui qui en reçoit une injection (Fantasio est, malgré lui, le premier cobaye à tester le X1). Le X2 est un produit faisant vieillir de soixante-dix ans en une heure. Le X4 (qui devient X3 dans La Jeunesse de Spirou), quant à lui, stimule les capacités mémorielles et plus généralement cérébrales. Champignac, comme le mycologue réel Roger Heim assez connu à l'époque, teste ces produits sur lui-même avec des effets divers, souvent inattendus et parfois dangereux lorsqu'il commet des erreurs, comme dans La Peur au bout du fil où on le voit sombrer dans une folie furieuse.
 Les extraordinaires applications pouvant être faites à partir de ces découvertes ont la plupart du temps pour conséquence de faire courir un grand danger au comte de Champignac, à Spirou, et à Fantasio, à cause des individus malveillants qui tentent de s'approprier les trouvailles du comte.
 Il n'est pas seulement un fabuleux biochimiste, il est également un ingénieur hors pair : dans Le Repaire de la murène, il conçoit et réalise un véhicule sous-marin permettant d'aller à plus de 200 mètres de profondeur, ce qui à l'époque était un exploit. Il fabrique également de nombreux petits gadgets qui s'avèrent souvent indispensables à Spirou et Fantasio pour venir à bout de leurs aventures.
-Une autre de ses innombrables trouvailles, et pas des moindres, est un œuf de dinosaure conservé intact dans le froid polaire qu'il parvient à réchauffer et à faire éclore. Champignac a aussi collaboré à l'OMS[5].
+Une autre de ses innombrables trouvailles, et pas des moindres, est un œuf de dinosaure conservé intact dans le froid polaire qu'il parvient à réchauffer et à faire éclore. Champignac a aussi collaboré à l'OMS.
 À partir de Paris-sous-Seine de Morvan et Munuera, il apprend à Spirou et Fantasio qu'il prend sa retraite des inventions abracadabrantes. Le personnage se consacre désormais uniquement à créer des inventions dans des buts strictement humanitaires. Le personnage change donc de rôle, même s'il avait déjà fait quelques pas dans cette direction, notamment dans Gare au cliché !, une courte aventure réalisée par Tome et Janry.
 Dans la série Spirou et Fantasio, le comte de Champignac, relativement posé à leur première rencontre, devient de plus en plus énergique, capable de se mettre dans des rages folles face aux prétentions mégalomanes de Zorglub, dans les albums qui sont consacrés à ce personnage. Cependant il ne lui en tient pas rigueur et après son repentir, ils redeviennent amis. Accompagnant de plus en plus Spirou et Fantasio dans leurs aventures, c'est un baroudeur courageux et sportif, on a plusieurs fois l'occasion de s'en rendre compte. On le voit d'ailleurs en joueur de tennis (amateur) dans la ville de Magnana Les Voleurs du marsupilami, planche 26.
 Même dans ses moments de colère, le comte veille toujours à s'exprimer dans un français distingué, châtié, mais sans ostentation, où abondent les expressions un peu désuètes. Il emploie volontiers le passé simple à l'oral. Ses jurons familiers sont « sapristi », « sabre de bois » et « sac à papier ».
-Habitat
-Le comte réside à Champignac-en-Cambrousse, au château de Champignac d'où il tire son patronyme, ce qui suggère un enracinement multiséculaire dans l'aristocratie locale. Il y vit seul, sans aucun domestique, et visiblement ne se préoccupe guère de l'entretien de l'édifice, quelque peu délabré, où règne un grand désordre et où le mobilier est en mauvais état.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comte réside à Champignac-en-Cambrousse, au château de Champignac d'où il tire son patronyme, ce qui suggère un enracinement multiséculaire dans l'aristocratie locale. Il y vit seul, sans aucun domestique, et visiblement ne se préoccupe guère de l'entretien de l'édifice, quelque peu délabré, où règne un grand désordre et où le mobilier est en mauvais état.
 Cette demeure, d'un style Louis XIII très sobre, a été inspiré à Franquin par le château de Skeuvre, situé en Wallonie sur la commune de Hamois, entité de Natoye, dans la province de Namur. Le château de Champignac est le lieu ou le point de départ de nombreuses aventures de Spirou et Fantasio, comme Moulinsart l'est pour Tintin et Haddock.
-Famille
-La famille du comte comprend :
-Côme de Champignac, trisaïeul du comte, décédé en 1829, qui a inventé la photographie[6].
-L'épouse de Champignac, dont on ignore l'identité et la destinée (est-il divorcé ? séparé ? veuf ?). Il l'évoque devant Spirou pour sa façon de lui réclamer des inventions[7].
-Aurélien de Champignac, le neveu du comte venu du futur, qui se révèle être le digne héritier de son oncle : il a inventé une machine à voyager dans le temps. Il est très énergique pour son âge bien qu'il se montre moins sûr de lui que Pacôme de Champignac[8].
-Inventions
-Le X1, produit qui donne une force surhumaine (Il y a un sorcier à Champignac).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La famille du comte comprend :
+Côme de Champignac, trisaïeul du comte, décédé en 1829, qui a inventé la photographie.
+L'épouse de Champignac, dont on ignore l'identité et la destinée (est-il divorcé ? séparé ? veuf ?). Il l'évoque devant Spirou pour sa façon de lui réclamer des inventions.
+Aurélien de Champignac, le neveu du comte venu du futur, qui se révèle être le digne héritier de son oncle : il a inventé une machine à voyager dans le temps. Il est très énergique pour son âge bien qu'il se montre moins sûr de lui que Pacôme de Champignac.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inventions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le X1, produit qui donne une force surhumaine (Il y a un sorcier à Champignac).
 Le X2, potion qui peut faire vieillir de 70 ans en une heure (Il y a un sorcier à Champignac).
 un antidote à celui-ci, mais qui peut ramener les personnes à un âge complètement incontrôlé.
 Des champignons luminescents destinés à éclairer le château (Il y a un sorcier à Champignac).
@@ -603,78 +761,222 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pac%C3%B4me_de_Champignac</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Création du personnage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du comte de Champignac, Franquin dit : « De tous mes personnages, celui que je regrette le plus, c'est le comte de Champignac. Il était mon idéal, mon protecteur[9]. »
-À propos du nom
-Le personnage aurait été suggéré par un artiste, peintre, dessinateur et photographe : Raymond Come.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du comte de Champignac, Franquin dit : « De tous mes personnages, celui que je regrette le plus, c'est le comte de Champignac. Il était mon idéal, mon protecteur. »
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pac%C3%B4me_de_Champignac</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Création du personnage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>À propos du nom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le personnage aurait été suggéré par un artiste, peintre, dessinateur et photographe : Raymond Come.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Œuvres où le personnage apparaît</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bande dessinée
-Spirou et Fantasio (Dupuis, 1948)
-Le Spirou de… (Dupuis, 2006)[10]
-Champignac (Dupuis, 2019)
-Conte audio
-Les disques Ades, dans la collection « Le petit ménestrel », publièrent dans les années 1980 plusieurs contes audio des aventures de Spirou et Fantasio :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Spirou et Fantasio (Dupuis, 1948)
+Le Spirou de… (Dupuis, 2006)
+Champignac (Dupuis, 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres où le personnage apparaît</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Conte audio</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les disques Ades, dans la collection « Le petit ménestrel », publièrent dans les années 1980 plusieurs contes audio des aventures de Spirou et Fantasio :
 Le Dictateur et le Champignon (1983, 33 tours, 45e anniversaire de Spirou)
-Le Repaire de la murène (1983, 33 tours, 45e anniversaire de Spirou)
-Séries animées
-Spirou (52 épisodes, Michel Gauthier, 1992-1995) avec Vincent Ropion
-Spirou et Fantasio (26 épisodes, Daniel Duda, 2006) avec Laurent Vernin
-Autres
-Le Comte de Champignac est le personnage de l'une des attractions du Parc Spirou, intitulée Aéro Champignac, détournement de chaises volantes sur le thème des champignons.
+Le Repaire de la murène (1983, 33 tours, 45e anniversaire de Spirou)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres où le personnage apparaît</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Séries animées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spirou (52 épisodes, Michel Gauthier, 1992-1995) avec Vincent Ropion
+Spirou et Fantasio (26 épisodes, Daniel Duda, 2006) avec Laurent Vernin</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pacôme_de_Champignac</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pac%C3%B4me_de_Champignac</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres où le personnage apparaît</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Comte de Champignac est le personnage de l'une des attractions du Parc Spirou, intitulée Aéro Champignac, détournement de chaises volantes sur le thème des champignons.
 </t>
         </is>
       </c>
